--- a/app/restock_quantities.xlsx
+++ b/app/restock_quantities.xlsx
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">

--- a/app/restock_quantities.xlsx
+++ b/app/restock_quantities.xlsx
@@ -484,7 +484,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
